--- a/assets/ssheets/filled_example_10x.xlsx
+++ b/assets/ssheets/filled_example_10x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mshadbolt/Desktop/git_repos/hca-metadata-community/assets/ssheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E44ADC-39D0-534A-A97E-0E0F3FF3E7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DC992-75C6-4047-B500-45B19EBC92E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This field provides with the information about which files should be analysed together (Come from the same library preparation)</t>
+          <t>This field provides  the information about which files should be analysed together (Come from the same library preparation)</t>
         </r>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="839">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -1076,24 +1076,6 @@
     <t>NORMOTHERMIC REGIONAL PERFUSION?</t>
   </si>
   <si>
-    <t>GESTATIONAL AGE</t>
-  </si>
-  <si>
-    <t>GESTATIONAL AGE UNIT</t>
-  </si>
-  <si>
-    <t>GESTATIONAL AGE UNIT ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>GESTATIONAL AGE UNIT ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>HEIGHT UNIT</t>
-  </si>
-  <si>
     <t>TIMECOURSE VALUE (Required)</t>
   </si>
   <si>
@@ -1181,12 +1163,6 @@
     <t>Whether entire body was perfused with warm oxygenated blood.</t>
   </si>
   <si>
-    <t>Gestational age of organism in Gestational age units measured since fertilization.</t>
-  </si>
-  <si>
-    <t>Height of organism in Height unit.</t>
-  </si>
-  <si>
     <t>A term that may be associated with a cell type-related ontology term</t>
   </si>
   <si>
@@ -1277,12 +1253,6 @@
     <t>Enter yes if entire body (but not limbs) was perfused with warm oxygenated blood. Otherwise, enter no. For example: Should be one of: yes, no, or unknown.</t>
   </si>
   <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 22; 5-7</t>
-  </si>
-  <si>
-    <t>Enter either a single value or a range of values. Indicate a range using a hyphen. For example: 160; 120-140</t>
-  </si>
-  <si>
     <t xml:space="preserve"> For example: micrometer; meter</t>
   </si>
   <si>
@@ -1388,33 +1358,6 @@
     <t>donor_organism.death.normothermic_regional_perfusion</t>
   </si>
   <si>
-    <t>donor_organism.gestational_age</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.text</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.ontology</t>
-  </si>
-  <si>
-    <t>donor_organism.gestational_age_unit.ontology_label</t>
-  </si>
-  <si>
-    <t>donor_organism.height</t>
-  </si>
-  <si>
-    <t>donor_organism.height_unit.text</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.value</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.unit.text</t>
-  </si>
-  <si>
-    <t>donor_organism.timecourse.relevance</t>
-  </si>
-  <si>
     <t>Homo sapiens</t>
   </si>
   <si>
@@ -1442,9 +1385,6 @@
     <t>year</t>
   </si>
   <si>
-    <t>UO:0000036</t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
@@ -1469,9 +1409,6 @@
     <t>Donation after brainstem death (DBD)</t>
   </si>
   <si>
-    <t>current smoker</t>
-  </si>
-  <si>
     <t>PROTOCOLS.IO DOI</t>
   </si>
   <si>
@@ -1574,18 +1511,12 @@
     <t>ORGAN ONTOLOGY ID</t>
   </si>
   <si>
-    <t>ORGAN ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
     <t>ORGAN PART</t>
   </si>
   <si>
     <t>ORGAN PART ONTOLOGY ID</t>
   </si>
   <si>
-    <t>ORGAN PART ONTOLOGY LABEL ONTOLOGY ID</t>
-  </si>
-  <si>
     <t>AUTOLYSIS SCORE</t>
   </si>
   <si>
@@ -3030,6 +2961,21 @@
   </si>
   <si>
     <t>LIBRARY PREPARATION PROTOCOL DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ORGAN ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>INSDC SAMPLE ACCESSION</t>
+  </si>
+  <si>
+    <t>BIOSAMPLES ACCESSION</t>
+  </si>
+  <si>
+    <t>INSDC ACCESSION</t>
+  </si>
+  <si>
+    <t>ORGAN PART ONTOLOGY LABEL</t>
   </si>
 </sst>
 </file>
@@ -3217,7 +3163,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3262,6 +3208,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3583,7 +3535,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3591,9 +3543,10 @@
     <col min="1" max="1" width="37.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="48.5" style="6" customWidth="1"/>
     <col min="3" max="3" width="66.83203125" style="6" customWidth="1"/>
-    <col min="4" max="7" width="25.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="24" style="6" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="5" max="7" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="24" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3726,7 +3679,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -4737,417 +4690,417 @@
   <dimension ref="A1:AF955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="28" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="6" customWidth="1"/>
     <col min="5" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="12" width="25.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14" style="6" customWidth="1"/>
+    <col min="8" max="12" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" style="6" customWidth="1"/>
-    <col min="15" max="16" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="19" width="25.6640625" style="6" customWidth="1"/>
-    <col min="20" max="20" width="8.83203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="19" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="21" max="21" width="14.1640625" style="6" customWidth="1"/>
     <col min="22" max="22" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="8.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="18.5" style="6" customWidth="1"/>
     <col min="25" max="25" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="27.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="26.6640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="17.83203125" style="6" customWidth="1"/>
-    <col min="29" max="29" width="16.5" style="6" customWidth="1"/>
+    <col min="27" max="27" width="21.5" style="6" customWidth="1"/>
+    <col min="28" max="28" width="17.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5" style="6" hidden="1" customWidth="1"/>
     <col min="30" max="31" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="36.1640625" style="6" customWidth="1"/>
+    <col min="32" max="32" width="36.1640625" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>817</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>818</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:32" s="26" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>794</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>796</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>819</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>842</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>820</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>821</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="E1" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>520</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>521</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>522</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>523</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>525</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>526</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="U1" s="21" t="s">
+      <c r="L1" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>498</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>500</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>505</v>
+      </c>
+      <c r="U1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="21" t="s">
-        <v>529</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>530</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>531</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB1" s="21" t="s">
+      <c r="X1" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>508</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AC1" s="21" t="s">
+      <c r="C2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AD1" s="21" t="s">
+      <c r="D2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="AE1" s="21" t="s">
+      <c r="H2" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AF1" s="21" t="s">
+      <c r="I2" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="J2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>236</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" ht="306" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="170" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="W3" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F4" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" t="s">
+        <v>531</v>
+      </c>
+      <c r="H4" t="s">
+        <v>532</v>
+      </c>
+      <c r="I4" t="s">
+        <v>533</v>
+      </c>
+      <c r="J4" t="s">
+        <v>534</v>
+      </c>
+      <c r="K4" t="s">
+        <v>535</v>
+      </c>
+      <c r="L4" t="s">
+        <v>536</v>
+      </c>
+      <c r="M4" t="s">
+        <v>537</v>
+      </c>
+      <c r="N4" t="s">
+        <v>538</v>
+      </c>
+      <c r="O4" t="s">
+        <v>539</v>
+      </c>
+      <c r="P4" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>541</v>
+      </c>
+      <c r="R4" t="s">
+        <v>542</v>
+      </c>
+      <c r="S4" t="s">
+        <v>543</v>
+      </c>
+      <c r="T4" t="s">
+        <v>544</v>
+      </c>
+      <c r="U4" t="s">
+        <v>545</v>
+      </c>
+      <c r="V4" t="s">
+        <v>546</v>
+      </c>
+      <c r="W4" t="s">
+        <v>547</v>
+      </c>
+      <c r="X4" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>549</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA4" t="s">
         <v>551</v>
       </c>
-      <c r="B4" t="s">
+      <c r="AB4" t="s">
         <v>552</v>
       </c>
-      <c r="C4" t="s">
+      <c r="AC4" t="s">
         <v>553</v>
       </c>
-      <c r="D4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E4" t="s">
-        <v>476</v>
-      </c>
-      <c r="F4" t="s">
-        <v>503</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="AD4" t="s">
         <v>554</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AE4" t="s">
         <v>555</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AF4" t="s">
         <v>556</v>
-      </c>
-      <c r="J4" t="s">
-        <v>557</v>
-      </c>
-      <c r="K4" t="s">
-        <v>558</v>
-      </c>
-      <c r="L4" t="s">
-        <v>559</v>
-      </c>
-      <c r="M4" t="s">
-        <v>560</v>
-      </c>
-      <c r="N4" t="s">
-        <v>561</v>
-      </c>
-      <c r="O4" t="s">
-        <v>562</v>
-      </c>
-      <c r="P4" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>564</v>
-      </c>
-      <c r="R4" t="s">
-        <v>565</v>
-      </c>
-      <c r="S4" t="s">
-        <v>566</v>
-      </c>
-      <c r="T4" t="s">
-        <v>567</v>
-      </c>
-      <c r="U4" t="s">
-        <v>568</v>
-      </c>
-      <c r="V4" t="s">
-        <v>569</v>
-      </c>
-      <c r="W4" t="s">
-        <v>570</v>
-      </c>
-      <c r="X4" t="s">
-        <v>571</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>572</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>573</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>574</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>575</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>576</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>577</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>578</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5188,90 +5141,90 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G6">
         <v>9606</v>
       </c>
       <c r="S6" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="U6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="V6" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="W6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="Y6" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="Z6" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="G7">
         <v>9606</v>
       </c>
       <c r="S7" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="U7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="V7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="W7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="X7" s="16" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="Y7" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="Z7" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6234,187 +6187,189 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="38.1640625" style="6" customWidth="1"/>
     <col min="8" max="9" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="28.6640625" style="6" customWidth="1"/>
     <col min="11" max="11" width="12.1640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="6" customWidth="1"/>
     <col min="13" max="13" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="29.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="25.6640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="32.1640625" style="6" customWidth="1"/>
+    <col min="15" max="16" width="17.83203125" style="6" customWidth="1"/>
     <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
     <col min="18" max="18" width="17.1640625" style="6" customWidth="1"/>
     <col min="19" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:18" s="26" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>804</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>830</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>831</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>594</v>
+      <c r="E1" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>70</v>
@@ -6422,58 +6377,58 @@
     </row>
     <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="F4" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="G4" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="H4" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="I4" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="J4" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="K4" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="L4" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="M4" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="N4" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="O4" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="P4" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="Q4" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="R4" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -6500,40 +6455,40 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="B6" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="C6" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="F6" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="H6" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="I6" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="K6" t="s">
         <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="M6" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="N6" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="O6" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7527,466 +7482,471 @@
   <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="25.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="34.6640625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="25.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="38.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="6" customWidth="1"/>
     <col min="10" max="10" width="20" style="6" customWidth="1"/>
     <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
     <col min="12" max="12" width="30.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="38.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="20.33203125" style="6" customWidth="1"/>
     <col min="15" max="15" width="22.6640625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="18" max="27" width="25.6640625" style="6" customWidth="1"/>
+    <col min="16" max="23" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="6" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="28" max="29" width="8.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="33.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="31" max="32" width="8.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="26.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="16.83203125" customWidth="1"/>
-    <col min="36" max="36" width="29.33203125" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>855</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:36" s="26" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE1" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AF1" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AG1" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AH1" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AI1" s="28" t="s">
         <v>640</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="M1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:36" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="O2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AB2" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>664</v>
-      </c>
     </row>
-    <row r="2" spans="1:36" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="145" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4" t="s">
+        <v>685</v>
+      </c>
+      <c r="C4" t="s">
+        <v>686</v>
+      </c>
+      <c r="D4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E4" t="s">
+        <v>688</v>
+      </c>
+      <c r="F4" t="s">
+        <v>689</v>
+      </c>
+      <c r="G4" t="s">
+        <v>690</v>
+      </c>
+      <c r="H4" t="s">
+        <v>691</v>
+      </c>
+      <c r="I4" t="s">
+        <v>692</v>
+      </c>
+      <c r="J4" t="s">
+        <v>693</v>
+      </c>
+      <c r="K4" t="s">
+        <v>694</v>
+      </c>
+      <c r="L4" t="s">
+        <v>695</v>
+      </c>
+      <c r="M4" t="s">
+        <v>696</v>
+      </c>
+      <c r="N4" t="s">
+        <v>697</v>
+      </c>
+      <c r="O4" t="s">
+        <v>698</v>
+      </c>
+      <c r="P4" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>700</v>
+      </c>
+      <c r="R4" t="s">
+        <v>701</v>
+      </c>
+      <c r="S4" t="s">
+        <v>702</v>
+      </c>
+      <c r="T4" t="s">
+        <v>703</v>
+      </c>
+      <c r="U4" t="s">
+        <v>704</v>
+      </c>
+      <c r="V4" t="s">
+        <v>705</v>
+      </c>
+      <c r="W4" t="s">
+        <v>706</v>
+      </c>
+      <c r="X4" t="s">
         <v>707</v>
       </c>
-      <c r="B4" t="s">
+      <c r="Y4" t="s">
         <v>708</v>
       </c>
-      <c r="C4" t="s">
+      <c r="Z4" t="s">
         <v>709</v>
       </c>
-      <c r="D4" t="s">
+      <c r="AA4" t="s">
         <v>710</v>
       </c>
-      <c r="E4" t="s">
+      <c r="AB4" t="s">
         <v>711</v>
       </c>
-      <c r="F4" t="s">
+      <c r="AC4" t="s">
         <v>712</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AD4" t="s">
         <v>713</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AE4" t="s">
         <v>714</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AF4" t="s">
         <v>715</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AG4" t="s">
         <v>716</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AH4" t="s">
         <v>717</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AI4" t="s">
         <v>718</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AJ4" t="s">
         <v>719</v>
-      </c>
-      <c r="N4" t="s">
-        <v>720</v>
-      </c>
-      <c r="O4" t="s">
-        <v>721</v>
-      </c>
-      <c r="P4" t="s">
-        <v>722</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>723</v>
-      </c>
-      <c r="R4" t="s">
-        <v>724</v>
-      </c>
-      <c r="S4" t="s">
-        <v>725</v>
-      </c>
-      <c r="T4" t="s">
-        <v>726</v>
-      </c>
-      <c r="U4" t="s">
-        <v>727</v>
-      </c>
-      <c r="V4" t="s">
-        <v>728</v>
-      </c>
-      <c r="W4" t="s">
-        <v>729</v>
-      </c>
-      <c r="X4" t="s">
-        <v>730</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>731</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>732</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>733</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>734</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>735</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>736</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>737</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>738</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>739</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>740</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>741</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -8029,21 +7989,21 @@
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="B6" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="F6" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="G6" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -8052,34 +8012,34 @@
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="L6" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="M6" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="N6" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="P6" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="Q6" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="X6" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="Y6" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9072,9 +9032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X865"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9088,143 +9046,143 @@
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="C4" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D4" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="F4" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="G4" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="H4" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="I4" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="J4" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="K4" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="L4" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -9244,22 +9202,22 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E6" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G6" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -9268,28 +9226,28 @@
         <v>8</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E7" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G7" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -9298,28 +9256,28 @@
         <v>26</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E8" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G8" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9328,28 +9286,28 @@
         <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E9" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G9" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -9358,28 +9316,28 @@
         <v>8</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E10" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G10" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9388,28 +9346,28 @@
         <v>26</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E11" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="G11" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9418,7 +9376,7 @@
         <v>98</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="L11"/>
     </row>
@@ -10290,73 +10248,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:X994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="71.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="40.83203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="52" style="6" customWidth="1"/>
     <col min="5" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="B4" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="C4" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="D4" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10369,57 +10325,57 @@
     </row>
     <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="B6" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="B8" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="B9" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="B10" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11413,12 +11369,13 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="25.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="39.5" style="6" customWidth="1"/>
     <col min="5" max="5" width="36.83203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="71" style="6" customWidth="1"/>
@@ -11542,7 +11499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -11602,10 +11559,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="9" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -11635,10 +11592,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="9" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E7" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="F7" t="s">
         <v>86</v>
@@ -11734,10 +11691,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="9" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E10" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -14117,18 +14074,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AN993"/>
+  <dimension ref="A1:AF985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61" style="6" customWidth="1"/>
-    <col min="2" max="8" width="25.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="29.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="5" max="8" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="13.83203125" style="6" customWidth="1"/>
@@ -14138,34 +14098,28 @@
     <col min="17" max="18" width="8.83203125" style="16" customWidth="1"/>
     <col min="19" max="19" width="28.6640625" style="16" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="25.6640625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="48.83203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="29.83203125" style="6" customWidth="1"/>
     <col min="22" max="22" width="45" style="6" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="16.33203125" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="58.83203125" style="6" customWidth="1"/>
+    <col min="24" max="24" width="30" style="6" customWidth="1"/>
     <col min="25" max="25" width="43" style="6" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="27.1640625" style="6" customWidth="1"/>
-    <col min="28" max="28" width="25.6640625" style="6" customWidth="1"/>
-    <col min="29" max="29" width="21.33203125" style="6" customWidth="1"/>
+    <col min="28" max="28" width="17.83203125" style="6" customWidth="1"/>
+    <col min="29" max="29" width="21.33203125" style="6" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="30.5" style="6" customWidth="1"/>
     <col min="31" max="31" width="25.6640625" style="6" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" style="6" customWidth="1"/>
-    <col min="33" max="33" width="21.5" style="6" customWidth="1"/>
-    <col min="34" max="35" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="36" max="38" width="8.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="16.6640625" style="6" customWidth="1"/>
-    <col min="40" max="40" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>177</v>
@@ -14177,10 +14131,10 @@
         <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>836</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>181</v>
+        <v>835</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>182</v>
@@ -14251,395 +14205,287 @@
       <c r="AE1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="AF1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="S2" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="99" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="Q3" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="S3" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="W3" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Z3" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="AB3" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="20" t="s">
-        <v>260</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="U3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="AE3" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="AC3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:31" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B4" t="s">
         <v>269</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="C4" t="s">
         <v>270</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="D4" t="s">
         <v>271</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="E4" t="s">
         <v>272</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="F4" t="s">
         <v>273</v>
       </c>
-      <c r="AK3" s="2" t="s">
+      <c r="G4" t="s">
         <v>274</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="H4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I4" t="s">
         <v>276</v>
       </c>
-      <c r="AM3" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AN3" s="2" t="s">
+      <c r="J4" t="s">
         <v>277</v>
       </c>
+      <c r="K4" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4" t="s">
+        <v>280</v>
+      </c>
+      <c r="N4" t="s">
+        <v>281</v>
+      </c>
+      <c r="O4" t="s">
+        <v>282</v>
+      </c>
+      <c r="P4" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="T4" t="s">
+        <v>284</v>
+      </c>
+      <c r="U4" t="s">
+        <v>288</v>
+      </c>
+      <c r="V4" t="s">
+        <v>289</v>
+      </c>
+      <c r="W4" t="s">
+        <v>290</v>
+      </c>
+      <c r="X4" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>292</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>298</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" t="s">
-        <v>283</v>
-      </c>
-      <c r="G4" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J4" t="s">
-        <v>287</v>
-      </c>
-      <c r="K4" t="s">
-        <v>288</v>
-      </c>
-      <c r="L4" t="s">
-        <v>289</v>
-      </c>
-      <c r="M4" t="s">
-        <v>290</v>
-      </c>
-      <c r="N4" t="s">
-        <v>291</v>
-      </c>
-      <c r="O4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P4" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="R4" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="T4" t="s">
-        <v>294</v>
-      </c>
-      <c r="U4" t="s">
-        <v>298</v>
-      </c>
-      <c r="V4" t="s">
-        <v>299</v>
-      </c>
-      <c r="W4" t="s">
-        <v>300</v>
-      </c>
-      <c r="X4" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>308</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>309</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>310</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>311</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>312</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>313</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>314</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>315</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>316</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -14673,192 +14519,85 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
     </row>
-    <row r="6" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" s="16" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>325</v>
+        <v>305</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>306</v>
       </c>
       <c r="D6" s="16">
         <v>9606</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="N6" s="16" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="O6" s="16" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="Q6" s="18">
         <v>53</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="T6" s="17" t="s">
         <v>88</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="V6" s="16" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="W6" s="16" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="X6" s="16" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="Y6" s="16" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="Z6" s="16" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="AA6" s="16" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="AB6" s="16" t="s">
         <v>107</v>
       </c>
       <c r="AD6" s="16" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="AE6" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="AJ6" s="16" t="s">
-        <v>336</v>
-      </c>
     </row>
-    <row r="7" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q7" s="18"/>
-      <c r="S7" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="AF7" s="18"/>
-    </row>
-    <row r="8" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q8" s="18"/>
-      <c r="S8" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="AF8" s="18"/>
-    </row>
-    <row r="9" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q9" s="18"/>
-      <c r="S9" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="AF9" s="18"/>
-    </row>
-    <row r="10" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q10" s="18"/>
-      <c r="S10" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="AF10" s="18"/>
-    </row>
-    <row r="11" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="Q11" s="18"/>
-      <c r="S11" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="T11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="AF11" s="18"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="T12" s="9"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AD12"/>
-      <c r="AE12"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="T13" s="9"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AD13"/>
-      <c r="AE13"/>
-    </row>
-    <row r="14" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15828,14 +15567,6 @@
     <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -15847,14 +15578,16 @@
   <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="25.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="45.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18" style="6" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="28.83203125" style="6" customWidth="1"/>
     <col min="8" max="8" width="8.83203125" style="6" hidden="1" customWidth="1"/>
@@ -15864,114 +15597,114 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F4" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="G4" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="H4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="I4" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -15989,27 +15722,27 @@
     </row>
     <row r="6" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17004,480 +16737,483 @@
   <dimension ref="A1:AL962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.1640625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
     <col min="5" max="5" width="32.5" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="25.6640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="6" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="14" style="6" customWidth="1"/>
     <col min="12" max="13" width="16.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="6" customWidth="1"/>
-    <col min="18" max="19" width="16.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="17.1640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="20" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.83203125" style="6" customWidth="1"/>
+    <col min="17" max="19" width="16.83203125" style="6" customWidth="1"/>
     <col min="20" max="20" width="17.5" style="6" customWidth="1"/>
     <col min="21" max="21" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="5.5" style="6" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="25.6640625" style="6" customWidth="1"/>
-    <col min="24" max="24" width="56.33203125" style="6" customWidth="1"/>
-    <col min="25" max="31" width="25.6640625" style="6" customWidth="1"/>
-    <col min="32" max="33" width="26.83203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="56.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="25.6640625" style="6" customWidth="1"/>
+    <col min="27" max="30" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="25.6640625" style="6" customWidth="1"/>
+    <col min="32" max="33" width="26.83203125" style="6" hidden="1" customWidth="1"/>
     <col min="34" max="35" width="25.6640625" style="6" hidden="1" customWidth="1"/>
     <col min="36" max="36" width="25.6640625" style="6" customWidth="1"/>
-    <col min="37" max="37" width="48.83203125" style="6" customWidth="1"/>
+    <col min="37" max="37" width="48.83203125" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>846</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>847</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>816</v>
-      </c>
-      <c r="F1" s="21" t="s">
+    <row r="1" spans="1:38" s="26" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="27" t="s">
         <v>179</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="I1" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1" s="21" t="s">
-        <v>373</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="T1" s="21" t="s">
+      <c r="N1" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>838</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="X1" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="AB1" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="AC1" s="21" t="s">
-        <v>381</v>
-      </c>
-      <c r="AD1" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="AE1" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF1" s="21" t="s">
-        <v>384</v>
-      </c>
-      <c r="AG1" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="AH1" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="AI1" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ1" s="21" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK1" s="21" t="s">
-        <v>389</v>
+      <c r="W1" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="AH2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="M3" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" t="s">
+        <v>407</v>
+      </c>
+      <c r="J4" t="s">
+        <v>408</v>
+      </c>
+      <c r="K4" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" t="s">
+        <v>410</v>
+      </c>
+      <c r="M4" t="s">
+        <v>411</v>
+      </c>
+      <c r="N4" t="s">
+        <v>412</v>
+      </c>
+      <c r="O4" t="s">
+        <v>413</v>
+      </c>
+      <c r="P4" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>415</v>
+      </c>
+      <c r="R4" t="s">
+        <v>416</v>
+      </c>
+      <c r="S4" t="s">
+        <v>417</v>
+      </c>
+      <c r="T4" t="s">
+        <v>418</v>
+      </c>
+      <c r="U4" t="s">
+        <v>419</v>
+      </c>
+      <c r="V4" t="s">
+        <v>420</v>
+      </c>
+      <c r="W4" t="s">
+        <v>421</v>
+      </c>
+      <c r="X4" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z4" t="s">
         <v>424</v>
       </c>
-      <c r="B4" t="s">
+      <c r="AA4" t="s">
         <v>425</v>
       </c>
-      <c r="C4" t="s">
+      <c r="AB4" t="s">
         <v>426</v>
       </c>
-      <c r="D4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="AC4" t="s">
         <v>427</v>
       </c>
-      <c r="G4" t="s">
+      <c r="AD4" t="s">
         <v>428</v>
       </c>
-      <c r="H4" t="s">
+      <c r="AE4" t="s">
         <v>429</v>
       </c>
-      <c r="I4" t="s">
+      <c r="AF4" t="s">
         <v>430</v>
       </c>
-      <c r="J4" t="s">
+      <c r="AG4" t="s">
         <v>431</v>
       </c>
-      <c r="K4" t="s">
+      <c r="AH4" t="s">
         <v>432</v>
       </c>
-      <c r="L4" t="s">
+      <c r="AI4" t="s">
         <v>433</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AJ4" t="s">
         <v>434</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AK4" t="s">
         <v>435</v>
-      </c>
-      <c r="O4" t="s">
-        <v>436</v>
-      </c>
-      <c r="P4" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>438</v>
-      </c>
-      <c r="R4" t="s">
-        <v>439</v>
-      </c>
-      <c r="S4" t="s">
-        <v>440</v>
-      </c>
-      <c r="T4" t="s">
-        <v>441</v>
-      </c>
-      <c r="U4" t="s">
-        <v>442</v>
-      </c>
-      <c r="V4" t="s">
-        <v>443</v>
-      </c>
-      <c r="W4" t="s">
-        <v>444</v>
-      </c>
-      <c r="X4" t="s">
-        <v>445</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>446</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>448</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>449</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>450</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>453</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>454</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>455</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>457</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -17524,132 +17260,132 @@
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="F6">
         <v>9606</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="L6" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M6" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="N6" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="O6" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="P6" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="Q6" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="R6" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="S6" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="T6" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="U6" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="V6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="Z6" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="AE6" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AJ6" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="C7" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="F7">
         <v>9606</v>
       </c>
       <c r="K7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="L7" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="N7" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="O7" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="P7" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="Q7" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="R7" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="S7" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="T7" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="U7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="V7" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="Z7" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="AE7" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="AJ7" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18619,12 +18355,14 @@
   <dimension ref="A1:X999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="36.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="25.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="31.1640625" style="6" customWidth="1"/>
@@ -18634,114 +18372,114 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="D4" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="E4" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="F4" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="G4" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="H4" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="I4" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -18757,27 +18495,27 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="256" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="B6" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="F6" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="G6" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="H6" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="I6" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19771,7 +19509,7 @@
   <dimension ref="A1:X997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19781,155 +19519,157 @@
     <col min="6" max="6" width="26.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" style="6" customWidth="1"/>
     <col min="8" max="10" width="25.6640625" style="6" customWidth="1"/>
-    <col min="11" max="24" width="8.83203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="15" style="6" customWidth="1"/>
+    <col min="13" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:12" s="26" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>496</v>
+      <c r="E1" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>471</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>473</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="148" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="E4" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="F4" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="H4" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="I4" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="J4" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="K4" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="L4" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -19950,25 +19690,25 @@
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="G6" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
       <c r="H6" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
       <c r="I6" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/assets/ssheets/filled_example_10x.xlsx
+++ b/assets/ssheets/filled_example_10x.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mshadbolt/Desktop/git_repos/hca-metadata-community/assets/ssheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4DC992-75C6-4047-B500-45B19EBC92E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F43ADD-202E-B440-9DDF-917337D3B0B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50900" yWindow="460" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Dissociation protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Enrichment protocol" sheetId="9" r:id="rId9"/>
     <sheet name="Cell suspension" sheetId="10" r:id="rId10"/>
-    <sheet name="Sequencing protocol" sheetId="11" r:id="rId11"/>
-    <sheet name="Library preparation protocol" sheetId="12" r:id="rId12"/>
+    <sheet name="Library preparation protocol" sheetId="12" r:id="rId11"/>
+    <sheet name="Sequencing protocol" sheetId="11" r:id="rId12"/>
     <sheet name="Sequence file" sheetId="13" r:id="rId13"/>
     <sheet name="Supplementary file" sheetId="14" r:id="rId14"/>
   </sheets>
@@ -459,7 +459,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="845">
   <si>
     <t>PROJECT LABEL (Required)</t>
   </si>
@@ -2753,36 +2753,18 @@
     <t>process.process_core.process_id</t>
   </si>
   <si>
-    <t>CZIKidney7587404_S1_L001_I1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">index1 </t>
   </si>
   <si>
-    <t>CZIKidney7587404_S1_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
     <t>read1</t>
   </si>
   <si>
-    <t>CZIKidney7587404_S1_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>read2</t>
   </si>
   <si>
-    <t>CZIKidney7587405_S1_L001_I1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>CZIKidney7587405_S1_L001_R1_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>CZIKidney7587405_S1_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
     <t>FILE DESCRIPTION</t>
   </si>
   <si>
@@ -2879,27 +2861,9 @@
     <t>Kidney_donor</t>
   </si>
   <si>
-    <t>Kidney_tissue_1</t>
-  </si>
-  <si>
-    <t>Kidney_tissue_2</t>
-  </si>
-  <si>
-    <t>Cell_suspension_1</t>
-  </si>
-  <si>
-    <t>Cell_suspension_2</t>
-  </si>
-  <si>
     <t>transplant_collection</t>
   </si>
   <si>
-    <t>library_preparation</t>
-  </si>
-  <si>
-    <t>sequencing</t>
-  </si>
-  <si>
     <t>kidney_dissociation</t>
   </si>
   <si>
@@ -2976,13 +2940,67 @@
   </si>
   <si>
     <t>ORGAN PART ONTOLOGY LABEL</t>
+  </si>
+  <si>
+    <t>10X_3p_library_prep</t>
+  </si>
+  <si>
+    <t>HiSeq4000_seq</t>
+  </si>
+  <si>
+    <t>kidney_ureter</t>
+  </si>
+  <si>
+    <t>kidney_medulla</t>
+  </si>
+  <si>
+    <t>Cell suspension from kidney biopsy sample - Ureter</t>
+  </si>
+  <si>
+    <t>Cell suspension from kidney biopsy sample - Medulla</t>
+  </si>
+  <si>
+    <t>Kidney Medulla Cell suspension</t>
+  </si>
+  <si>
+    <t>Kidney Ureter Cell Suspension</t>
+  </si>
+  <si>
+    <t>kid_ureter_cells</t>
+  </si>
+  <si>
+    <t>kid_medulla_cells</t>
+  </si>
+  <si>
+    <t>kid_ureter_cells_I1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>kid_ureter_cells_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>kid_ureter_cells_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>kid_medulla_cells_I1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>kid_medulla_cells_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>kid_medulla_cells_R2_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>Kidney Ureter</t>
+  </si>
+  <si>
+    <t>Kidney Medulla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3083,12 +3101,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -3163,7 +3175,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3202,7 +3214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3535,7 +3546,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3608,7 +3619,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -4690,7 +4701,7 @@
   <dimension ref="A1:AF955"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4719,101 +4730,101 @@
     <col min="32" max="32" width="36.1640625" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="26" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>794</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>795</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>796</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>819</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>797</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>798</v>
-      </c>
-      <c r="G1" s="27" t="s">
+    <row r="1" spans="1:32" s="25" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>807</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>497</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>503</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="26" t="s">
         <v>504</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="26" t="s">
         <v>505</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>507</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>508</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="26" t="s">
         <v>509</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5141,22 +5152,22 @@
     </row>
     <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>808</v>
+        <v>834</v>
       </c>
       <c r="C6" t="s">
-        <v>436</v>
+        <v>831</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="G6">
         <v>9606</v>
@@ -5185,22 +5196,22 @@
     </row>
     <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>809</v>
+        <v>833</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>832</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="G7">
         <v>9606</v>
@@ -6183,91 +6194,152 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:X1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:AJ1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="23" style="6" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="6" customWidth="1"/>
-    <col min="8" max="9" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="6" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="29.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="16" width="17.83203125" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
-    <col min="18" max="18" width="17.1640625" style="6" customWidth="1"/>
-    <col min="19" max="24" width="8.83203125" style="6" customWidth="1"/>
+    <col min="1" max="4" width="25.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="20" style="6" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="38.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="6" customWidth="1"/>
+    <col min="16" max="23" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="25.6640625" style="6" customWidth="1"/>
+    <col min="25" max="25" width="12.5" style="6" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="28" max="29" width="8.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="33.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="8.83203125" style="6" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="26.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="16.83203125" customWidth="1"/>
+    <col min="36" max="36" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="26" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>831</v>
-      </c>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:36" s="25" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>797</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>571</v>
+      <c r="G1" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>615</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>618</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>624</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>625</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>626</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>627</v>
+      </c>
+      <c r="V1" s="27" t="s">
+        <v>628</v>
+      </c>
+      <c r="W1" s="27" t="s">
+        <v>629</v>
+      </c>
+      <c r="X1" s="27" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y1" s="27" t="s">
+        <v>631</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>616</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>634</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>637</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>639</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>640</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>641</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>320</v>
       </c>
@@ -6287,43 +6359,97 @@
         <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>577</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>578</v>
+        <v>648</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" ht="160" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>327</v>
       </c>
@@ -6339,99 +6465,207 @@
         <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>579</v>
+        <v>660</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>580</v>
+        <v>661</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>581</v>
+        <v>663</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>582</v>
+        <v>664</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>583</v>
+        <v>665</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>584</v>
+        <v>666</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>260</v>
+        <v>668</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>70</v>
+        <v>670</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>683</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="B4" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="C4" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="D4" t="s">
-        <v>590</v>
+        <v>687</v>
       </c>
       <c r="E4" t="s">
-        <v>591</v>
+        <v>688</v>
       </c>
       <c r="F4" t="s">
-        <v>592</v>
+        <v>689</v>
       </c>
       <c r="G4" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
       <c r="H4" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="I4" t="s">
-        <v>595</v>
+        <v>692</v>
       </c>
       <c r="J4" t="s">
-        <v>596</v>
+        <v>693</v>
       </c>
       <c r="K4" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
       <c r="L4" t="s">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="M4" t="s">
-        <v>599</v>
+        <v>696</v>
       </c>
       <c r="N4" t="s">
-        <v>600</v>
+        <v>697</v>
       </c>
       <c r="O4" t="s">
-        <v>601</v>
+        <v>698</v>
       </c>
       <c r="P4" t="s">
-        <v>602</v>
+        <v>699</v>
       </c>
       <c r="Q4" t="s">
-        <v>603</v>
+        <v>700</v>
       </c>
       <c r="R4" t="s">
-        <v>604</v>
+        <v>701</v>
+      </c>
+      <c r="S4" t="s">
+        <v>702</v>
+      </c>
+      <c r="T4" t="s">
+        <v>703</v>
+      </c>
+      <c r="U4" t="s">
+        <v>704</v>
+      </c>
+      <c r="V4" t="s">
+        <v>705</v>
+      </c>
+      <c r="W4" t="s">
+        <v>706</v>
+      </c>
+      <c r="X4" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>708</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>709</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>711</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>712</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>713</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>714</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>715</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>716</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>717</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>718</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -6452,43 +6686,76 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" ht="173" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="B6" t="s">
-        <v>605</v>
-      </c>
-      <c r="C6" t="s">
-        <v>606</v>
+        <v>720</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>721</v>
       </c>
       <c r="F6" t="s">
-        <v>607</v>
+        <v>722</v>
       </c>
       <c r="G6" t="s">
-        <v>608</v>
-      </c>
-      <c r="H6" t="s">
-        <v>609</v>
-      </c>
-      <c r="I6" t="s">
-        <v>608</v>
+        <v>723</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>724</v>
       </c>
       <c r="L6" t="s">
-        <v>610</v>
+        <v>725</v>
       </c>
       <c r="M6" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
       <c r="N6" t="s">
-        <v>610</v>
-      </c>
-      <c r="O6" t="s">
-        <v>612</v>
+        <v>726</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="P6" t="s">
+        <v>728</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>727</v>
+      </c>
+      <c r="X6" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>730</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7478,8 +7745,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:AJ1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -7487,143 +7754,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="34.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="38.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="6" customWidth="1"/>
-    <col min="16" max="23" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="25.6640625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="12.5" style="6" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="28" max="29" width="8.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="33.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="8.83203125" style="6" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="25.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="26.6640625" style="6" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="16.83203125" customWidth="1"/>
-    <col min="36" max="36" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="23" style="6" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="38.1640625" style="6" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="25.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" style="6" hidden="1" customWidth="1"/>
+    <col min="15" max="16" width="17.83203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="18.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="17.1640625" style="6" customWidth="1"/>
+    <col min="19" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="26" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>833</v>
-      </c>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:18" s="25" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>798</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>818</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>819</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>614</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>615</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>617</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>619</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>620</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>621</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>623</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>624</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>625</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>626</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>627</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>629</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>631</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>616</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>634</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>635</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>636</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>637</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>638</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>639</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>640</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>641</v>
+      <c r="G1" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>571</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>320</v>
       </c>
@@ -7643,97 +7849,43 @@
         <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>642</v>
+        <v>572</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>643</v>
+        <v>220</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>644</v>
+        <v>221</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>645</v>
+        <v>573</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>646</v>
+        <v>574</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>647</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>326</v>
+        <v>575</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>220</v>
+        <v>576</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>221</v>
+        <v>577</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>659</v>
+        <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>327</v>
       </c>
@@ -7749,207 +7901,99 @@
         <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>660</v>
+        <v>579</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>661</v>
+        <v>580</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>662</v>
+        <v>579</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>663</v>
+        <v>581</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>664</v>
+        <v>582</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>665</v>
+        <v>583</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>666</v>
+        <v>584</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>667</v>
+        <v>583</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>668</v>
+        <v>585</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>669</v>
+        <v>586</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>668</v>
+        <v>260</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AE3" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AF3" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>683</v>
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>685</v>
+        <v>588</v>
       </c>
       <c r="C4" t="s">
-        <v>686</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>687</v>
+        <v>590</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>591</v>
       </c>
       <c r="F4" t="s">
-        <v>689</v>
+        <v>592</v>
       </c>
       <c r="G4" t="s">
-        <v>690</v>
+        <v>593</v>
       </c>
       <c r="H4" t="s">
-        <v>691</v>
+        <v>594</v>
       </c>
       <c r="I4" t="s">
-        <v>692</v>
+        <v>595</v>
       </c>
       <c r="J4" t="s">
-        <v>693</v>
+        <v>596</v>
       </c>
       <c r="K4" t="s">
-        <v>694</v>
+        <v>597</v>
       </c>
       <c r="L4" t="s">
-        <v>695</v>
+        <v>598</v>
       </c>
       <c r="M4" t="s">
-        <v>696</v>
+        <v>599</v>
       </c>
       <c r="N4" t="s">
-        <v>697</v>
+        <v>600</v>
       </c>
       <c r="O4" t="s">
-        <v>698</v>
+        <v>601</v>
       </c>
       <c r="P4" t="s">
-        <v>699</v>
+        <v>602</v>
       </c>
       <c r="Q4" t="s">
-        <v>700</v>
+        <v>603</v>
       </c>
       <c r="R4" t="s">
-        <v>701</v>
-      </c>
-      <c r="S4" t="s">
-        <v>702</v>
-      </c>
-      <c r="T4" t="s">
-        <v>703</v>
-      </c>
-      <c r="U4" t="s">
-        <v>704</v>
-      </c>
-      <c r="V4" t="s">
-        <v>705</v>
-      </c>
-      <c r="W4" t="s">
-        <v>706</v>
-      </c>
-      <c r="X4" t="s">
-        <v>707</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>708</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>709</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>710</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>711</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>712</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>713</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>715</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>716</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>717</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>718</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>719</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -7970,76 +8014,43 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
-      <c r="AF5" s="1"/>
-      <c r="AG5" s="1"/>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
     </row>
-    <row r="6" spans="1:36" ht="173" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>721</v>
+        <v>605</v>
+      </c>
+      <c r="C6" t="s">
+        <v>606</v>
       </c>
       <c r="F6" t="s">
-        <v>722</v>
+        <v>607</v>
       </c>
       <c r="G6" t="s">
-        <v>723</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>16</v>
+        <v>608</v>
+      </c>
+      <c r="H6" t="s">
+        <v>609</v>
+      </c>
+      <c r="I6" t="s">
+        <v>608</v>
       </c>
       <c r="K6" t="s">
-        <v>724</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>725</v>
+        <v>610</v>
       </c>
       <c r="M6" t="s">
-        <v>724</v>
+        <v>611</v>
       </c>
       <c r="N6" t="s">
-        <v>726</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="P6" t="s">
-        <v>728</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>727</v>
-      </c>
-      <c r="X6" t="s">
-        <v>729</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>730</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>799</v>
+        <v>610</v>
+      </c>
+      <c r="O6" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9032,7 +9043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:X865"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9049,13 +9062,13 @@
         <v>731</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>732</v>
@@ -9202,22 +9215,22 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>837</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="E6" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>812</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>765</v>
-      </c>
-      <c r="G6" t="s">
-        <v>766</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -9226,28 +9239,28 @@
         <v>8</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>767</v>
+        <v>838</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>812</v>
+        <v>835</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="E7" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -9256,28 +9269,28 @@
         <v>26</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>769</v>
+        <v>839</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>812</v>
+        <v>835</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="E8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G8" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -9286,28 +9299,28 @@
         <v>98</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="L8"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>812</v>
+        <v>836</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="E9" t="s">
+        <v>764</v>
+      </c>
+      <c r="G9" t="s">
         <v>765</v>
-      </c>
-      <c r="G9" t="s">
-        <v>766</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -9316,28 +9329,28 @@
         <v>8</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L9"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>772</v>
+        <v>841</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>812</v>
+        <v>836</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="E10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G10" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -9346,28 +9359,28 @@
         <v>26</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L10"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>773</v>
+        <v>842</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>809</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>811</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>812</v>
+        <v>836</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>827</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>828</v>
       </c>
       <c r="E11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G11" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -9376,7 +9389,7 @@
         <v>98</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="L11"/>
     </row>
@@ -10270,7 +10283,7 @@
         <v>733</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -10284,7 +10297,7 @@
         <v>741</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
@@ -10298,21 +10311,21 @@
         <v>749</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B4" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C4" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="D4" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10323,59 +10336,59 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>776</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" t="s">
+        <v>776</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="B8" t="s">
+        <v>776</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>781</v>
       </c>
-      <c r="B6" t="s">
-        <v>782</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>783</v>
-      </c>
     </row>
-    <row r="7" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="B7" t="s">
-        <v>782</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="B8" t="s">
-        <v>782</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>607</v>
       </c>
       <c r="B9" t="s">
+        <v>776</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>782</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>788</v>
-      </c>
     </row>
-    <row r="10" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>722</v>
       </c>
       <c r="B10" t="s">
-        <v>782</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>789</v>
+        <v>776</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11559,10 +11572,10 @@
       </c>
       <c r="B6" s="4"/>
       <c r="D6" s="9" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="F6" t="s">
         <v>86</v>
@@ -11592,10 +11605,10 @@
       </c>
       <c r="B7" s="4"/>
       <c r="D7" s="9" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E7" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="F7" t="s">
         <v>86</v>
@@ -11691,10 +11704,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="9" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="E10" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="F10" t="s">
         <v>86</v>
@@ -14074,7 +14087,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AF985"/>
+  <dimension ref="A1:AE985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="X2" sqref="X2"/>
@@ -14113,13 +14126,13 @@
   <sheetData>
     <row r="1" spans="1:31" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>177</v>
@@ -14131,10 +14144,10 @@
         <v>179</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>182</v>
@@ -14522,12 +14535,12 @@
     </row>
     <row r="6" spans="1:31" s="16" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>306</v>
       </c>
       <c r="D6" s="16">
@@ -15578,7 +15591,7 @@
   <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15597,13 +15610,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>155</v>
@@ -15621,7 +15634,7 @@
         <v>319</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -15722,12 +15735,12 @@
     </row>
     <row r="6" spans="1:9" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>343</v>
       </c>
       <c r="D6" s="16"/>
@@ -16737,7 +16750,7 @@
   <dimension ref="A1:AL962"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16772,116 +16785,116 @@
     <col min="37" max="37" width="48.83203125" style="6" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="26" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:38" s="25" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>806</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>824</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="J1" s="26" t="s">
         <v>825</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>818</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>793</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>836</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>837</v>
-      </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="26" t="s">
         <v>348</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="P1" s="27" t="s">
-        <v>834</v>
-      </c>
-      <c r="Q1" s="27" t="s">
+      <c r="P1" s="26" t="s">
+        <v>822</v>
+      </c>
+      <c r="Q1" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="S1" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="T1" s="27" t="s">
+      <c r="S1" s="26" t="s">
+        <v>826</v>
+      </c>
+      <c r="T1" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="26" t="s">
         <v>366</v>
       </c>
     </row>
@@ -17260,19 +17273,19 @@
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>806</v>
+        <v>843</v>
       </c>
       <c r="C6" t="s">
         <v>436</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F6">
         <v>9606</v>
@@ -17325,19 +17338,19 @@
     </row>
     <row r="7" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>807</v>
+        <v>830</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>807</v>
+        <v>844</v>
       </c>
       <c r="C7" t="s">
         <v>446</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="F7">
         <v>9606</v>
@@ -18372,13 +18385,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>155</v>
@@ -18497,12 +18510,12 @@
     </row>
     <row r="6" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B6" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>463</v>
       </c>
       <c r="F6" t="s">
@@ -19524,41 +19537,41 @@
     <col min="13" max="24" width="8.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="26" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>798</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>828</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>829</v>
-      </c>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:12" s="25" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>817</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
         <v>473</v>
       </c>
     </row>
@@ -19690,12 +19703,12 @@
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="C6" s="26" t="s">
+        <v>802</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>492</v>
       </c>
       <c r="F6" t="s">
